--- a/AAII_Financials/Quarterly/OSBK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OSBK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>OSBK</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,53 +665,57 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>40999</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>40908</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40816</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -719,28 +723,31 @@
         <v>3800</v>
       </c>
       <c r="E8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F8" s="3">
         <v>10700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9300</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2600</v>
       </c>
       <c r="I8" s="3">
         <v>2600</v>
       </c>
       <c r="J8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K8" s="3">
         <v>2800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -768,8 +775,11 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +823,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +885,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +917,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,66 +962,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,37 +1040,41 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1053,20 +1090,23 @@
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
         <v>800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,66 +1134,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
         <v>2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,66 +1230,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,66 +1422,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,71 +1518,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>40999</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>40908</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40816</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,13 +1617,14 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
+      <c r="D41" s="3">
+        <v>38600</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>5</v>
@@ -1548,20 +1635,23 @@
       <c r="G41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
         <v>45200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>18200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,8 +1679,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1618,8 +1711,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,8 +1743,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1676,8 +1775,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1705,8 +1807,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1734,13 +1839,16 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
+      <c r="D48" s="3">
+        <v>4300</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>5</v>
@@ -1751,20 +1859,23 @@
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>5500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1792,8 +1903,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,8 +1967,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1879,8 +1999,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,13 +2031,16 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
+      <c r="D54" s="3">
+        <v>391100</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>5</v>
@@ -1925,20 +2051,23 @@
       <c r="G54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
         <v>277300</v>
-      </c>
-      <c r="I54" s="3">
-        <v>259800</v>
       </c>
       <c r="J54" s="3">
         <v>259800</v>
       </c>
       <c r="K54" s="3">
+        <v>259800</v>
+      </c>
+      <c r="L54" s="3">
         <v>269100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,8 +2093,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1992,8 +2123,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2021,13 +2155,16 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
+      <c r="D59" s="3">
+        <v>500</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>5</v>
@@ -2038,20 +2175,23 @@
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>500</v>
       </c>
       <c r="K59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2079,8 +2219,11 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2108,8 +2251,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2137,8 +2283,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,13 +2379,16 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
+      <c r="D66" s="3">
+        <v>355000</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>5</v>
@@ -2241,20 +2399,23 @@
       <c r="G66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
         <v>254700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>237700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>235500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>245800</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2489,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,13 +2553,16 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
+      <c r="D72" s="3">
+        <v>29100</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>5</v>
@@ -2399,20 +2573,23 @@
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
         <v>15500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>15100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>16800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,13 +2681,16 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
+      <c r="D76" s="3">
+        <v>36100</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>5</v>
@@ -2515,20 +2701,23 @@
       <c r="G76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3">
         <v>22600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>22200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>24300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,71 +2745,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>40999</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>40908</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40816</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,8 +2830,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2649,20 +2848,23 @@
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="3">
-        <v>200</v>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,8 +3020,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2823,20 +3040,23 @@
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
         <v>1700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,8 +3068,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2865,8 +3086,8 @@
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -2877,8 +3098,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,8 +3162,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2952,20 +3182,23 @@
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
         <v>7700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>9000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,8 +3336,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3110,20 +3356,23 @@
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
         <v>17600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-10200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,8 +3400,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3168,16 +3420,19 @@
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
         <v>27000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OSBK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OSBK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>OSBK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>40999</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40816</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="E8" s="3">
         <v>3800</v>
       </c>
       <c r="F8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G8" s="3">
         <v>10700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9300</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2600</v>
       </c>
       <c r="J8" s="3">
         <v>2600</v>
       </c>
       <c r="K8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L8" s="3">
         <v>2800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -778,8 +785,11 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,8 +820,11 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,8 +837,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -856,8 +870,11 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,8 +905,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,8 +940,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,8 +975,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,72 +989,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E18" s="3">
         <v>3000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,40 +1074,44 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1093,20 +1130,23 @@
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1137,72 +1177,81 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,72 +1282,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>900</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>900</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1387,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1422,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1457,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,72 +1492,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E32" s="3">
         <v>2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>900</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,77 +1597,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>900</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>40999</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40816</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1689,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,17 +1704,18 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E41" s="3">
         <v>38600</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>5</v>
       </c>
@@ -1638,20 +1725,23 @@
       <c r="H41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
         <v>45200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1682,8 +1772,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1714,8 +1807,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1746,8 +1842,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1778,8 +1877,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1810,8 +1912,11 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1842,17 +1947,20 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E48" s="3">
         <v>4300</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
@@ -1862,20 +1970,23 @@
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>5500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1906,8 +2017,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2052,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,8 +2087,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2002,8 +2122,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,17 +2157,20 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>469100</v>
+      </c>
+      <c r="E54" s="3">
         <v>391100</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2054,20 +2180,23 @@
       <c r="H54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
         <v>277300</v>
-      </c>
-      <c r="J54" s="3">
-        <v>259800</v>
       </c>
       <c r="K54" s="3">
         <v>259800</v>
       </c>
       <c r="L54" s="3">
+        <v>259800</v>
+      </c>
+      <c r="M54" s="3">
         <v>269100</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2209,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,8 +2224,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2126,8 +2257,11 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2158,17 +2292,20 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2178,20 +2315,23 @@
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>500</v>
       </c>
       <c r="L59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2222,13 +2362,16 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>29400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2254,8 +2397,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2286,8 +2432,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2467,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2502,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,17 +2537,20 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>432300</v>
+      </c>
+      <c r="E66" s="3">
         <v>355000</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>5</v>
       </c>
@@ -2402,20 +2560,23 @@
       <c r="H66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
         <v>254700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>237700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>235500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>245800</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2589,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2622,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2657,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2524,8 +2692,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,17 +2727,20 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E72" s="3">
         <v>29100</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
@@ -2576,20 +2750,23 @@
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
         <v>15500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>15100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2797,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +2832,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,17 +2867,20 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E76" s="3">
         <v>36100</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>5</v>
       </c>
@@ -2704,20 +2890,23 @@
       <c r="H76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I76" s="3">
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3">
         <v>22600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>22200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,77 +2937,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>40999</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40816</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>900</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,8 +3029,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2851,20 +3050,23 @@
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="3">
-        <v>200</v>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3097,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3132,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3167,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3202,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,8 +3237,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3043,20 +3260,23 @@
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
         <v>1700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,8 +3289,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3089,8 +3310,8 @@
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -3101,8 +3322,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3357,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,8 +3392,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3185,20 +3415,23 @@
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
         <v>7700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>9000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3444,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3477,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3512,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3547,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,8 +3582,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3359,20 +3605,23 @@
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
         <v>17600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-10200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3403,8 +3652,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3423,16 +3675,19 @@
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
         <v>27000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OSBK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OSBK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>OSBK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,65 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40999</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40816</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -727,34 +731,37 @@
         <v>4100</v>
       </c>
       <c r="E8" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="F8" s="3">
         <v>3800</v>
       </c>
       <c r="G8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H8" s="3">
         <v>10700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2600</v>
       </c>
       <c r="K8" s="3">
         <v>2600</v>
       </c>
       <c r="L8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M8" s="3">
         <v>2800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -788,8 +795,11 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,8 +833,11 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +851,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,8 +887,11 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,8 +925,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,8 +963,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1001,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,78 +1016,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E18" s="3">
         <v>3500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,43 +1108,47 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1133,20 +1170,23 @@
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1180,78 +1220,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,78 +1334,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
         <v>900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
         <v>900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,78 +1562,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E32" s="3">
         <v>2400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
         <v>900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,83 +1676,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
         <v>900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40999</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40816</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,20 +1791,21 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E41" s="3">
         <v>69600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>38600</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>5</v>
       </c>
@@ -1728,20 +1815,23 @@
       <c r="I41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>45200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,8 +1865,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1810,8 +1903,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1845,8 +1941,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1880,8 +1979,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1915,8 +2017,11 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1950,20 +2055,23 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E48" s="3">
         <v>4200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4300</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
@@ -1973,20 +2081,23 @@
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>5500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2131,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,8 +2207,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2125,8 +2245,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,20 +2283,23 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>469400</v>
+      </c>
+      <c r="E54" s="3">
         <v>469100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>391100</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2183,20 +2309,23 @@
       <c r="I54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>277300</v>
-      </c>
-      <c r="K54" s="3">
-        <v>259800</v>
       </c>
       <c r="L54" s="3">
         <v>259800</v>
       </c>
       <c r="M54" s="3">
+        <v>259800</v>
+      </c>
+      <c r="N54" s="3">
         <v>269100</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,8 +2355,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2260,8 +2391,11 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2295,8 +2429,11 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2304,11 +2441,11 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2318,20 +2455,23 @@
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
-      </c>
-      <c r="L59" s="3">
-        <v>500</v>
       </c>
       <c r="M59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2365,17 +2505,20 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E61" s="3">
         <v>29400</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2400,8 +2543,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2435,8 +2581,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,20 +2695,23 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>431900</v>
+      </c>
+      <c r="E66" s="3">
         <v>432300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>355000</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>5</v>
       </c>
@@ -2563,20 +2721,23 @@
       <c r="I66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>254700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>237700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>235500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>245800</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2695,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,20 +2901,23 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E72" s="3">
         <v>30000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>29100</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
@@ -2753,20 +2927,23 @@
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>15500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,20 +3053,23 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E76" s="3">
         <v>36900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>36100</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>5</v>
       </c>
@@ -2893,20 +3079,23 @@
       <c r="I76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>22600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,83 +3129,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40999</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40816</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
         <v>900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3228,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3053,20 +3252,23 @@
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J83" s="3">
-        <v>200</v>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,8 +3454,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3263,20 +3480,23 @@
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,8 +3510,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3313,8 +3534,8 @@
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3325,8 +3546,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,8 +3622,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3418,20 +3648,23 @@
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>7700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>9000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,8 +3828,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3608,20 +3854,23 @@
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>17600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-10200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3655,8 +3904,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3678,16 +3930,19 @@
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>27000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OSBK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OSBK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>OSBK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,68 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40999</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40816</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -734,34 +737,37 @@
         <v>4100</v>
       </c>
       <c r="F8" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="G8" s="3">
         <v>3800</v>
       </c>
       <c r="H8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I8" s="3">
         <v>10700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2600</v>
       </c>
       <c r="L8" s="3">
         <v>2600</v>
       </c>
       <c r="M8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N8" s="3">
         <v>2800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -798,8 +804,11 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -836,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +864,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,8 +944,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -966,8 +985,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1026,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,8 +1042,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1026,37 +1052,40 @@
         <v>900</v>
       </c>
       <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1064,37 +1093,40 @@
         <v>3200</v>
       </c>
       <c r="E18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F18" s="3">
         <v>3500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,46 +1141,50 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1173,20 +1209,23 @@
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1223,84 +1262,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
       </c>
       <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,84 +1385,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,84 +1631,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E32" s="3">
         <v>2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,89 +1754,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40999</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40816</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,23 +1877,24 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>76400</v>
+      </c>
+      <c r="E41" s="3">
         <v>61200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>69600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>38600</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>5</v>
       </c>
@@ -1818,20 +1904,23 @@
       <c r="J41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>45200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,8 +1957,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1906,8 +1998,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,8 +2039,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1982,8 +2080,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2020,8 +2121,11 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2058,23 +2162,26 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E48" s="3">
         <v>4300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4300</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2084,20 +2191,23 @@
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>5500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2134,8 +2244,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,8 +2326,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2248,8 +2367,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,23 +2408,26 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>494500</v>
+      </c>
+      <c r="E54" s="3">
         <v>469400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>469100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>391100</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2312,20 +2437,23 @@
       <c r="J54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>277300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>259800</v>
       </c>
       <c r="M54" s="3">
         <v>259800</v>
       </c>
       <c r="N54" s="3">
+        <v>259800</v>
+      </c>
+      <c r="O54" s="3">
         <v>269100</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,8 +2485,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2394,8 +2524,11 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2432,8 +2565,11 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2444,11 +2580,11 @@
         <v>0</v>
       </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2458,20 +2594,23 @@
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
-      </c>
-      <c r="M59" s="3">
-        <v>500</v>
       </c>
       <c r="N59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2508,20 +2647,23 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E61" s="3">
         <v>38300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>29400</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2546,8 +2688,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2584,8 +2729,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,23 +2852,26 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>456400</v>
+      </c>
+      <c r="E66" s="3">
         <v>431900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>432300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>355000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>5</v>
       </c>
@@ -2724,20 +2881,23 @@
       <c r="J66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>254700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>237700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>235500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>245800</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,23 +3074,26 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E72" s="3">
         <v>30500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>30000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>29100</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
@@ -2930,20 +3103,23 @@
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>15500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,23 +3238,26 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E76" s="3">
         <v>37400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>36900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>36100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3082,20 +3267,23 @@
       <c r="J76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>22600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,89 +3320,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40999</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40816</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,46 +3426,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,46 +3670,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,34 +3730,35 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3549,8 +3769,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,46 +3851,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>7700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>9000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,46 +4073,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>17600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-10200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,42 +4155,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>27000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OSBK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OSBK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>OSBK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,77 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40999</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40816</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E8" s="3">
         <v>4100</v>
@@ -740,34 +744,37 @@
         <v>4100</v>
       </c>
       <c r="G8" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="H8" s="3">
         <v>3800</v>
       </c>
       <c r="I8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J8" s="3">
         <v>10700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9300</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2600</v>
       </c>
       <c r="M8" s="3">
         <v>2600</v>
       </c>
       <c r="N8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O8" s="3">
         <v>2800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -807,8 +814,11 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,8 +878,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,8 +920,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +964,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,8 +1008,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,90 +1069,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E17" s="3">
         <v>900</v>
       </c>
       <c r="F17" s="3">
+        <v>900</v>
+      </c>
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="E18" s="3">
         <v>3200</v>
       </c>
       <c r="F18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G18" s="3">
         <v>3500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,49 +1175,53 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1212,20 +1249,23 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1265,90 +1305,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,90 +1437,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>800</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,90 +1701,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E32" s="3">
         <v>2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>800</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,95 +1833,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>800</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40999</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40816</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,26 +1964,27 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E41" s="3">
         <v>76400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>61200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>69600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>38600</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>5</v>
       </c>
@@ -1907,20 +1994,23 @@
       <c r="K41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>45200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>18200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,8 +2050,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2001,8 +2094,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,8 +2138,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2083,8 +2182,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2124,8 +2226,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2165,26 +2270,29 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E48" s="3">
         <v>5100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4300</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2194,20 +2302,23 @@
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>5500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2247,8 +2358,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,8 +2446,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2370,8 +2490,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,26 +2534,29 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>516700</v>
+      </c>
+      <c r="E54" s="3">
         <v>494500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>469400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>469100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>391100</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2440,20 +2566,23 @@
       <c r="K54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>277300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>259800</v>
       </c>
       <c r="N54" s="3">
         <v>259800</v>
       </c>
       <c r="O54" s="3">
+        <v>259800</v>
+      </c>
+      <c r="P54" s="3">
         <v>269100</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,8 +2616,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2527,8 +2658,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2568,13 +2702,16 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2583,11 +2720,11 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2597,20 +2734,23 @@
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
-      </c>
-      <c r="N59" s="3">
-        <v>500</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2650,8 +2790,11 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2659,14 +2802,14 @@
         <v>9800</v>
       </c>
       <c r="E61" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F61" s="3">
         <v>38300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>29400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2691,8 +2834,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2732,8 +2878,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,26 +3010,29 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>479200</v>
+      </c>
+      <c r="E66" s="3">
         <v>456400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>431900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>432300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>355000</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
       </c>
@@ -2884,20 +3042,23 @@
       <c r="K66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>254700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>237700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>235500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>245800</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,26 +3248,29 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E72" s="3">
         <v>30800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>30500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>30000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>29100</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3106,20 +3280,23 @@
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>15500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>16800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,26 +3424,29 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E76" s="3">
         <v>38100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>37400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>36900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>36100</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3270,20 +3456,23 @@
       <c r="K76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>22600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,95 +3512,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40999</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40816</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>800</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,8 +3625,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3453,23 +3652,26 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,8 +3887,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3699,23 +3916,26 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,8 +3951,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3757,11 +3978,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3772,8 +3993,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,8 +4081,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3880,23 +4110,26 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>7700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>9000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,8 +4319,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4102,23 +4348,26 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>17600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-10200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,8 +4407,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4184,19 +4436,22 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>27000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OSBK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OSBK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>OSBK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,84 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40816</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E8" s="3">
         <v>4200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4100</v>
       </c>
       <c r="F8" s="3">
         <v>4100</v>
@@ -747,34 +751,37 @@
         <v>4100</v>
       </c>
       <c r="H8" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="I8" s="3">
         <v>3800</v>
       </c>
       <c r="J8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K8" s="3">
         <v>10700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9300</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2600</v>
       </c>
       <c r="N8" s="3">
         <v>2600</v>
       </c>
       <c r="O8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P8" s="3">
         <v>2800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -817,8 +824,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,8 +871,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,8 +892,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -923,8 +937,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,8 +984,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1011,8 +1031,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1078,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,96 +1096,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
-      </c>
-      <c r="E17" s="3">
-        <v>900</v>
       </c>
       <c r="F17" s="3">
         <v>900</v>
       </c>
       <c r="G17" s="3">
+        <v>900</v>
+      </c>
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3500</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3200</v>
       </c>
       <c r="F18" s="3">
         <v>3200</v>
       </c>
       <c r="G18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H18" s="3">
         <v>3500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,52 +1209,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1252,20 +1289,23 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1308,8 +1348,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1317,43 +1360,46 @@
         <v>1000</v>
       </c>
       <c r="E23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1361,43 +1407,46 @@
         <v>200</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
       <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,8 +1489,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1449,43 +1501,46 @@
         <v>800</v>
       </c>
       <c r="E26" s="3">
+        <v>800</v>
+      </c>
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1493,43 +1548,46 @@
         <v>800</v>
       </c>
       <c r="E27" s="3">
+        <v>800</v>
+      </c>
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1630,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1677,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,52 +1771,58 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1757,43 +1830,46 @@
         <v>800</v>
       </c>
       <c r="E33" s="3">
+        <v>800</v>
+      </c>
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,8 +1912,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1845,92 +1924,98 @@
         <v>800</v>
       </c>
       <c r="E35" s="3">
+        <v>800</v>
+      </c>
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40816</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,29 +2051,30 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E41" s="3">
         <v>63500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>76400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>61200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>69600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>38600</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
       </c>
@@ -1997,20 +2084,23 @@
       <c r="L41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>45200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>18200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2053,8 +2143,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2097,8 +2190,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,8 +2237,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2185,8 +2284,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2229,8 +2331,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2273,29 +2378,32 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E48" s="3">
         <v>6400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2305,20 +2413,23 @@
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>5500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2361,8 +2472,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,8 +2566,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2493,8 +2613,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,29 +2660,32 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>529300</v>
+      </c>
+      <c r="E54" s="3">
         <v>516700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>494500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>469400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>469100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>391100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2569,20 +2695,23 @@
       <c r="L54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>277300</v>
-      </c>
-      <c r="N54" s="3">
-        <v>259800</v>
       </c>
       <c r="O54" s="3">
         <v>259800</v>
       </c>
       <c r="P54" s="3">
+        <v>259800</v>
+      </c>
+      <c r="Q54" s="3">
         <v>269100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,8 +2747,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2661,8 +2792,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2705,17 +2839,20 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
@@ -2723,11 +2860,11 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2737,20 +2874,23 @@
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>500</v>
       </c>
       <c r="P59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2793,8 +2933,11 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2805,14 +2948,14 @@
         <v>9800</v>
       </c>
       <c r="F61" s="3">
+        <v>9800</v>
+      </c>
+      <c r="G61" s="3">
         <v>38300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>29400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2837,8 +2980,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2881,8 +3027,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,29 +3168,32 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>490400</v>
+      </c>
+      <c r="E66" s="3">
         <v>479200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>456400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>431900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>432300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>355000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3045,20 +3203,23 @@
       <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>254700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>237700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>235500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>245800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3207,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,29 +3422,32 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E72" s="3">
         <v>31000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>30800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>30500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>30000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>29100</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3283,20 +3457,23 @@
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>15500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,29 +3610,32 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E76" s="3">
         <v>37500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>38100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>37400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>36900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>36100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3459,20 +3645,23 @@
       <c r="L76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>22600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,57 +3704,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40816</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3573,43 +3768,46 @@
         <v>800</v>
       </c>
       <c r="E81" s="3">
+        <v>800</v>
+      </c>
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,8 +3824,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3655,23 +3854,26 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
-        <v>200</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,8 +4104,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3919,23 +4136,26 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,8 +4172,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3981,11 +4202,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3996,8 +4217,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,8 +4311,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4113,23 +4343,26 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>7700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>9000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4379,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4424,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,8 +4565,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4351,23 +4597,26 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>17600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-10200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,8 +4659,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4439,19 +4691,22 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>27000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-8400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OSBK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OSBK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>OSBK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,91 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40999</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40908</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>40816</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E8" s="3">
         <v>4400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4100</v>
       </c>
       <c r="G8" s="3">
         <v>4100</v>
@@ -754,34 +758,37 @@
         <v>4100</v>
       </c>
       <c r="I8" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="J8" s="3">
         <v>3800</v>
       </c>
       <c r="K8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L8" s="3">
         <v>10700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9300</v>
-      </c>
-      <c r="N8" s="3">
-        <v>2600</v>
       </c>
       <c r="O8" s="3">
         <v>2600</v>
       </c>
       <c r="P8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q8" s="3">
         <v>2800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -827,8 +834,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +906,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -940,8 +954,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,8 +1004,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1034,8 +1054,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,8 +1123,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1106,93 +1133,99 @@
         <v>400</v>
       </c>
       <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>900</v>
       </c>
       <c r="G17" s="3">
         <v>900</v>
       </c>
       <c r="H17" s="3">
+        <v>900</v>
+      </c>
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E18" s="3">
         <v>4000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3200</v>
       </c>
       <c r="G18" s="3">
         <v>3200</v>
       </c>
       <c r="H18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I18" s="3">
         <v>3500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,8 +1243,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1219,46 +1253,49 @@
         <v>-3000</v>
       </c>
       <c r="E20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1292,20 +1329,23 @@
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1351,55 +1391,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E23" s="3">
         <v>1000</v>
       </c>
       <c r="F23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1410,43 +1456,46 @@
         <v>200</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
       </c>
       <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,102 +1541,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E26" s="3">
         <v>800</v>
       </c>
       <c r="F26" s="3">
+        <v>800</v>
+      </c>
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E27" s="3">
         <v>800</v>
       </c>
       <c r="F27" s="3">
+        <v>800</v>
+      </c>
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,8 +1841,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1783,93 +1853,99 @@
         <v>3000</v>
       </c>
       <c r="E32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F32" s="3">
         <v>2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E33" s="3">
         <v>800</v>
       </c>
       <c r="F33" s="3">
+        <v>800</v>
+      </c>
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,107 +1991,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E35" s="3">
         <v>800</v>
       </c>
       <c r="F35" s="3">
+        <v>800</v>
+      </c>
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40999</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40908</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>40816</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,32 +2138,33 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E41" s="3">
         <v>76800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>63500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>76400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>61200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>69600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>38600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>5</v>
       </c>
@@ -2087,20 +2174,23 @@
       <c r="M41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>45200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>18200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2146,8 +2236,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2193,8 +2286,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2240,8 +2336,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2287,8 +2386,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2334,8 +2436,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2381,32 +2486,35 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E48" s="3">
         <v>8100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2416,20 +2524,23 @@
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>5500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2475,8 +2586,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,8 +2686,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2616,8 +2736,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,32 +2786,35 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>532200</v>
+      </c>
+      <c r="E54" s="3">
         <v>529300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>516700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>494500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>469400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>469100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>391100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2698,20 +2824,23 @@
       <c r="M54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>277300</v>
-      </c>
-      <c r="O54" s="3">
-        <v>259800</v>
       </c>
       <c r="P54" s="3">
         <v>259800</v>
       </c>
       <c r="Q54" s="3">
+        <v>259800</v>
+      </c>
+      <c r="R54" s="3">
         <v>269100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,8 +2878,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2795,8 +2926,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2842,20 +2976,23 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
@@ -2863,11 +3000,11 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2877,20 +3014,23 @@
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
-      </c>
-      <c r="P59" s="3">
-        <v>500</v>
       </c>
       <c r="Q59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2936,8 +3076,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2951,14 +3094,14 @@
         <v>9800</v>
       </c>
       <c r="G61" s="3">
+        <v>9800</v>
+      </c>
+      <c r="H61" s="3">
         <v>38300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>29400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2983,8 +3126,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3030,8 +3176,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,32 +3326,35 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>492900</v>
+      </c>
+      <c r="E66" s="3">
         <v>490400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>479200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>456400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>431900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>432300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>355000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3206,20 +3364,23 @@
       <c r="M66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>254700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>237700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>235500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>245800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3378,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,32 +3596,35 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E72" s="3">
         <v>31800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>31000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>30800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>30500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>30000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>29100</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3460,20 +3634,23 @@
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>15500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,32 +3796,35 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E76" s="3">
         <v>38900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>37500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>38100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>37400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>36900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>36100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3648,20 +3834,23 @@
       <c r="M76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>22600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,107 +3896,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40999</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40908</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>40816</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E81" s="3">
         <v>800</v>
       </c>
       <c r="F81" s="3">
+        <v>800</v>
+      </c>
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,8 +4023,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3857,23 +4056,26 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
-        <v>200</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,8 +4321,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4139,23 +4356,26 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>1700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,8 +4393,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4205,11 +4426,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4220,8 +4441,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,8 +4541,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4346,23 +4576,26 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>7700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>9000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,8 +4811,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4600,23 +4846,26 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>17600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4662,8 +4911,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4694,19 +4946,22 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>27000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-8400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OSBK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OSBK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>OSBK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,97 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40999</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>40908</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>40816</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E8" s="3">
         <v>4200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>4100</v>
       </c>
       <c r="H8" s="3">
         <v>4100</v>
@@ -761,34 +764,37 @@
         <v>4100</v>
       </c>
       <c r="J8" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="K8" s="3">
         <v>3800</v>
       </c>
       <c r="L8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M8" s="3">
         <v>10700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9300</v>
-      </c>
-      <c r="O8" s="3">
-        <v>2600</v>
       </c>
       <c r="P8" s="3">
         <v>2600</v>
       </c>
       <c r="Q8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R8" s="3">
         <v>2800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -837,8 +843,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,8 +919,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -957,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,8 +1023,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1076,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1149,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
         <v>400</v>
       </c>
       <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>900</v>
       </c>
       <c r="H17" s="3">
         <v>900</v>
       </c>
       <c r="I17" s="3">
+        <v>900</v>
+      </c>
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E18" s="3">
         <v>3800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3200</v>
       </c>
       <c r="H18" s="3">
         <v>3200</v>
       </c>
       <c r="I18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J18" s="3">
         <v>3500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,58 +1276,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="E20" s="3">
         <v>-3000</v>
       </c>
       <c r="F20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1332,20 +1368,23 @@
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,63 +1433,69 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>900</v>
+      </c>
+      <c r="E23" s="3">
         <v>800</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1000</v>
       </c>
       <c r="F23" s="3">
         <v>1000</v>
       </c>
       <c r="G23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
@@ -1459,43 +1504,46 @@
         <v>200</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
       </c>
       <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,8 +1592,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1553,49 +1604,52 @@
         <v>700</v>
       </c>
       <c r="E26" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F26" s="3">
         <v>800</v>
       </c>
       <c r="G26" s="3">
+        <v>800</v>
+      </c>
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1603,49 +1657,52 @@
         <v>700</v>
       </c>
       <c r="E27" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F27" s="3">
         <v>800</v>
       </c>
       <c r="G27" s="3">
+        <v>800</v>
+      </c>
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,58 +1910,64 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E32" s="3">
         <v>3000</v>
       </c>
       <c r="F32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G32" s="3">
         <v>2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1903,49 +1975,52 @@
         <v>700</v>
       </c>
       <c r="E33" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F33" s="3">
         <v>800</v>
       </c>
       <c r="G33" s="3">
+        <v>800</v>
+      </c>
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,8 +2069,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2003,104 +2081,110 @@
         <v>700</v>
       </c>
       <c r="E35" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F35" s="3">
         <v>800</v>
       </c>
       <c r="G35" s="3">
+        <v>800</v>
+      </c>
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40999</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>40908</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>40816</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,35 +2224,36 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E41" s="3">
         <v>75000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>76800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>63500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>76400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>61200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>69600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>38600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>5</v>
       </c>
@@ -2177,20 +2263,23 @@
       <c r="N41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>45200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>18200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>22600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,8 +2328,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2289,8 +2381,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,8 +2434,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2389,8 +2487,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2439,8 +2540,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2489,35 +2593,38 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E48" s="3">
         <v>8200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4300</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2527,20 +2634,23 @@
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>5500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2589,8 +2699,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,8 +2805,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2739,8 +2858,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,35 +2911,38 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>571100</v>
+      </c>
+      <c r="E54" s="3">
         <v>532200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>529300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>516700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>494500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>469400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>469100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>391100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2827,20 +2952,23 @@
       <c r="N54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>277300</v>
-      </c>
-      <c r="P54" s="3">
-        <v>259800</v>
       </c>
       <c r="Q54" s="3">
         <v>259800</v>
       </c>
       <c r="R54" s="3">
+        <v>259800</v>
+      </c>
+      <c r="S54" s="3">
         <v>269100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,8 +3008,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2929,8 +3059,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2979,8 +3112,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2990,12 +3126,12 @@
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
@@ -3003,11 +3139,11 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3017,20 +3153,23 @@
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>500</v>
       </c>
       <c r="R59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3079,8 +3218,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3097,14 +3239,14 @@
         <v>9800</v>
       </c>
       <c r="H61" s="3">
+        <v>9800</v>
+      </c>
+      <c r="I61" s="3">
         <v>38300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>29400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3129,8 +3271,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3179,8 +3324,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,35 +3483,38 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>531800</v>
+      </c>
+      <c r="E66" s="3">
         <v>492900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>490400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>479200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>456400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>431900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>432300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>355000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3367,20 +3524,23 @@
       <c r="N66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>254700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>237700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>235500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>245800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,35 +3769,38 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E72" s="3">
         <v>32500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>31800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>31000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>30800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>30500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>30000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>29100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3637,20 +3810,23 @@
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>15500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,8 +3981,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3808,26 +3993,26 @@
         <v>39300</v>
       </c>
       <c r="E76" s="3">
+        <v>39300</v>
+      </c>
+      <c r="F76" s="3">
         <v>38900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>37500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>38100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>37400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>36900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>36100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3837,20 +4022,23 @@
       <c r="N76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>22600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>24300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,63 +4087,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40999</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>40908</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>40816</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3963,49 +4157,52 @@
         <v>700</v>
       </c>
       <c r="E81" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F81" s="3">
         <v>800</v>
       </c>
       <c r="G81" s="3">
+        <v>800</v>
+      </c>
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,8 +4221,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4059,23 +4257,26 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
-        <v>200</v>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,8 +4537,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4359,23 +4575,26 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,8 +4613,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4429,11 +4649,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4444,8 +4664,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,8 +4770,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4579,23 +4808,26 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>7700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>9000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,8 +5056,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4849,23 +5094,26 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>17600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-10200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,8 +5162,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4949,19 +5200,22 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>27000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-8400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OSBK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OSBK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>OSBK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>40999</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>40908</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>40816</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E8" s="3">
         <v>4500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4100</v>
       </c>
       <c r="I8" s="3">
         <v>4100</v>
@@ -767,34 +771,37 @@
         <v>4100</v>
       </c>
       <c r="K8" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="L8" s="3">
         <v>3800</v>
       </c>
       <c r="M8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N8" s="3">
         <v>10700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9300</v>
-      </c>
-      <c r="P8" s="3">
-        <v>2600</v>
       </c>
       <c r="Q8" s="3">
         <v>2600</v>
       </c>
       <c r="R8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S8" s="3">
         <v>2800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -846,8 +853,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,8 +909,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,8 +933,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -973,8 +987,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,8 +1043,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1079,8 +1099,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1132,8 +1155,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,114 +1176,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
       </c>
       <c r="G17" s="3">
+        <v>400</v>
+      </c>
+      <c r="H17" s="3">
         <v>700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>900</v>
       </c>
       <c r="I17" s="3">
         <v>900</v>
       </c>
       <c r="J17" s="3">
+        <v>900</v>
+      </c>
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E18" s="3">
         <v>3900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3200</v>
       </c>
       <c r="I18" s="3">
         <v>3200</v>
       </c>
       <c r="J18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K18" s="3">
         <v>3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,61 +1310,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-3000</v>
       </c>
       <c r="F20" s="3">
         <v>-3000</v>
       </c>
       <c r="G20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1371,20 +1408,23 @@
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1436,69 +1476,75 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>800</v>
+      </c>
+      <c r="E23" s="3">
         <v>900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>800</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1000</v>
       </c>
       <c r="G23" s="3">
         <v>1000</v>
       </c>
       <c r="H23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>200</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
@@ -1507,43 +1553,46 @@
         <v>200</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
       </c>
       <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,114 +1644,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E26" s="3">
         <v>700</v>
       </c>
       <c r="F26" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G26" s="3">
         <v>800</v>
       </c>
       <c r="H26" s="3">
+        <v>800</v>
+      </c>
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E27" s="3">
         <v>700</v>
       </c>
       <c r="F27" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G27" s="3">
         <v>800</v>
       </c>
       <c r="H27" s="3">
+        <v>800</v>
+      </c>
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1868,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,114 +1980,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E32" s="3">
         <v>3100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>3000</v>
       </c>
       <c r="F32" s="3">
         <v>3000</v>
       </c>
       <c r="G32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H32" s="3">
         <v>2500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E33" s="3">
         <v>700</v>
       </c>
       <c r="F33" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G33" s="3">
         <v>800</v>
       </c>
       <c r="H33" s="3">
+        <v>800</v>
+      </c>
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,119 +2148,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E35" s="3">
         <v>700</v>
       </c>
       <c r="F35" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G35" s="3">
         <v>800</v>
       </c>
       <c r="H35" s="3">
+        <v>800</v>
+      </c>
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>40999</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>40908</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>40816</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,38 +2311,39 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>82800</v>
+      </c>
+      <c r="E41" s="3">
         <v>85800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>75000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>76800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>63500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>76400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>61200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>69600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>38600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>5</v>
       </c>
@@ -2266,20 +2353,23 @@
       <c r="O41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>45200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>18200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>22600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2331,8 +2421,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2384,8 +2477,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2437,8 +2533,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2490,8 +2589,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2543,8 +2645,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2596,38 +2701,41 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E48" s="3">
         <v>8600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2637,20 +2745,23 @@
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>5500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2702,8 +2813,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,8 +2925,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2861,8 +2981,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,38 +3037,41 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>557100</v>
+      </c>
+      <c r="E54" s="3">
         <v>571100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>532200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>529300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>516700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>494500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>469400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>469100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>391100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2955,20 +3081,23 @@
       <c r="O54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>277300</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>259800</v>
       </c>
       <c r="R54" s="3">
         <v>259800</v>
       </c>
       <c r="S54" s="3">
+        <v>259800</v>
+      </c>
+      <c r="T54" s="3">
         <v>269100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,8 +3139,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3062,8 +3193,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3115,13 +3249,16 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
+      <c r="D59" s="3">
+        <v>600</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>5</v>
@@ -3129,12 +3266,12 @@
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
@@ -3142,11 +3279,11 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3156,20 +3293,23 @@
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
-      </c>
-      <c r="R59" s="3">
-        <v>500</v>
       </c>
       <c r="S59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3221,8 +3361,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3242,14 +3385,14 @@
         <v>9800</v>
       </c>
       <c r="I61" s="3">
+        <v>9800</v>
+      </c>
+      <c r="J61" s="3">
         <v>38300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>29400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3274,8 +3417,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3327,8 +3473,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,38 +3641,41 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>524400</v>
+      </c>
+      <c r="E66" s="3">
         <v>531800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>492900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>490400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>479200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>456400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>431900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>432300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>355000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3527,20 +3685,23 @@
       <c r="O66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>254700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>237700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>235500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>245800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,8 +3943,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3781,29 +3955,29 @@
         <v>33200</v>
       </c>
       <c r="E72" s="3">
+        <v>33200</v>
+      </c>
+      <c r="F72" s="3">
         <v>32500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>31800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>31000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>30800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>30500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>30000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>29100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3813,20 +3987,23 @@
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>15500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,38 +4167,41 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>39300</v>
+        <v>32700</v>
       </c>
       <c r="E76" s="3">
         <v>39300</v>
       </c>
       <c r="F76" s="3">
+        <v>39300</v>
+      </c>
+      <c r="G76" s="3">
         <v>38900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>37500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>38100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>37400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>36900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>5</v>
       </c>
@@ -4025,20 +4211,23 @@
       <c r="O76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>22600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>24300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,119 +4279,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>40999</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>40908</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>40816</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E81" s="3">
         <v>700</v>
       </c>
       <c r="F81" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G81" s="3">
         <v>800</v>
       </c>
       <c r="H81" s="3">
+        <v>800</v>
+      </c>
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,8 +4420,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4260,23 +4459,26 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
-        <v>200</v>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,8 +4754,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4578,23 +4795,26 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>1700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,8 +4834,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4652,11 +4873,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4667,8 +4888,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,8 +5000,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4811,23 +5041,26 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>7700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>9000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,8 +5302,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5097,23 +5343,26 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>17600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-10200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5165,8 +5414,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5203,19 +5455,22 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>27000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-8400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OSBK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OSBK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>OSBK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,157 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>40999</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>40908</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>40816</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F8" s="3">
         <v>3900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>4400</v>
       </c>
       <c r="H8" s="3">
         <v>4200</v>
       </c>
       <c r="I8" s="3">
-        <v>4100</v>
+        <v>4400</v>
       </c>
       <c r="J8" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K8" s="3">
         <v>4100</v>
       </c>
       <c r="L8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N8" s="3">
         <v>3800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>10700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>9300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -856,8 +870,14 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,8 +932,14 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,8 +960,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -990,8 +1018,14 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,8 +1080,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1102,8 +1142,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,8 +1204,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,8 +1229,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1186,111 +1240,123 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>800</v>
       </c>
       <c r="M17" s="3">
         <v>600</v>
       </c>
       <c r="N17" s="3">
+        <v>800</v>
+      </c>
+      <c r="O17" s="3">
+        <v>600</v>
+      </c>
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F18" s="3">
         <v>3600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>3900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>3800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>4000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>3500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>3200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>3000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>9200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>8600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,64 +1377,72 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-3000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-2900</v>
       </c>
       <c r="J20" s="3">
         <v>-2500</v>
       </c>
       <c r="K20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="M20" s="3">
         <v>-2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-7000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-2400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-7300</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-2000</v>
       </c>
       <c r="S20" s="3">
         <v>-1400</v>
       </c>
       <c r="T20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1411,20 +1485,26 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1479,120 +1559,138 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="E23" s="3">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="F23" s="3">
         <v>800</v>
       </c>
       <c r="G23" s="3">
+        <v>900</v>
+      </c>
+      <c r="H23" s="3">
+        <v>800</v>
+      </c>
+      <c r="I23" s="3">
         <v>1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
       </c>
       <c r="G24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J24" s="3">
+        <v>200</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
-      </c>
-      <c r="P24" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>300</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
       </c>
       <c r="S24" s="3">
+        <v>300</v>
+      </c>
+      <c r="T24" s="3">
+        <v>100</v>
+      </c>
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,120 +1745,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,8 +1931,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1871,8 +1993,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +2055,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,120 +2117,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F32" s="3">
         <v>2800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>3000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2900</v>
       </c>
       <c r="J32" s="3">
         <v>2500</v>
       </c>
       <c r="K32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M32" s="3">
         <v>2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>7000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>2400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>7300</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1400</v>
-      </c>
-      <c r="R32" s="3">
-        <v>2000</v>
       </c>
       <c r="S32" s="3">
         <v>1400</v>
       </c>
       <c r="T32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,125 +2303,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>40999</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>40908</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>40816</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2460,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,64 +2484,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>32100</v>
+      </c>
+      <c r="F41" s="3">
         <v>82800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>85800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>75000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>76800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>63500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>76400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>61200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>69600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>38600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>45200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>18200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>22600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2424,8 +2604,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2480,8 +2666,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2536,8 +2728,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2592,8 +2790,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2648,8 +2852,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2704,43 +2914,49 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F48" s="3">
         <v>8500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>8600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>8200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>8100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>6400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>4300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>4200</v>
       </c>
       <c r="L48" s="3">
         <v>4300</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
+      <c r="M48" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N48" s="3">
+        <v>4300</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>5</v>
@@ -2748,20 +2964,26 @@
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>5500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>5600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>5700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2816,8 +3038,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +3100,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,8 +3162,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2984,8 +3224,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,64 +3286,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>533000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>505900</v>
+      </c>
+      <c r="F54" s="3">
         <v>557100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>571100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>532200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>529300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>516700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>494500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>469400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>469100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>391100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>277300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>259800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>259800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>269100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3376,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,8 +3400,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3196,8 +3458,14 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3252,64 +3520,76 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
-        <v>500</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1100</v>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S59" s="3">
         <v>500</v>
       </c>
       <c r="T59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3364,8 +3644,14 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3388,17 +3674,17 @@
         <v>9800</v>
       </c>
       <c r="J61" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K61" s="3">
+        <v>9800</v>
+      </c>
+      <c r="L61" s="3">
         <v>38300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>29400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3420,8 +3706,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3476,8 +3768,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3830,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3892,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,64 +3954,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>505600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>476400</v>
+      </c>
+      <c r="F66" s="3">
         <v>524400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>531800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>492900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>490400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>479200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>456400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>431900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>432300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>355000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>254700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>237700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>235500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>245800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +4044,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +4102,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +4164,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3890,8 +4226,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,64 +4288,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>34400</v>
+      </c>
+      <c r="F72" s="3">
         <v>33200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>33200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>32500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>31800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>31000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>30800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>30500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>30000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>29100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>15500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>15100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>16800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4412,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4474,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,64 +4536,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>29500</v>
+      </c>
+      <c r="F76" s="3">
         <v>32700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>39300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>39300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>38900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>37500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>38100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>37400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>36900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>36100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>22600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>22200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>24300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,125 +4660,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>40999</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>40908</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>40816</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>40724</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,8 +4817,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4462,23 +4860,29 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4937,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4999,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +5061,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +5123,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,8 +5185,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4798,23 +5232,29 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>1700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,8 +5275,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4876,14 +5318,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4891,8 +5333,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5395,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,8 +5457,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5044,23 +5504,29 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>7700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-6100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>9000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,8 +5547,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5137,8 +5605,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5667,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5729,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,8 +5791,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5346,23 +5838,29 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>17600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-10200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5417,8 +5915,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5458,19 +5962,25 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>27000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-4400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-8400</v>
       </c>
     </row>
